--- a/Annexes/Annexe6_TableauDeSynthese.xlsx
+++ b/Annexes/Annexe6_TableauDeSynthese.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="504" windowWidth="33264" windowHeight="12816"/>
+    <workbookView xWindow="1290" yWindow="510" windowWidth="33270" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -80,13 +80,7 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SISR</t>
-  </si>
-  <si>
-    <t>▢ SLAM</t>
   </si>
   <si>
     <t xml:space="preserve">Réalisation en cours de formation
@@ -104,9 +98,6 @@
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -132,6 +123,68 @@
   </si>
   <si>
     <t>Développement de l'application principale</t>
+  </si>
+  <si>
+    <t>Amélioration du site web de l'entreprise entraides jeunes</t>
+  </si>
+  <si>
+    <t>Recherche des bugs d'affichage pour les différentes pages et oublie dans les différentes pages</t>
+  </si>
+  <si>
+    <t>du 31/05/2021 au 25/06/2021</t>
+  </si>
+  <si>
+    <t>Développement d'une application listant les recettes de cuisine (Cookle.php)</t>
+  </si>
+  <si>
+    <t>Développement d'une application Mobile à deux avec un camarade (Gogmeteo)</t>
+  </si>
+  <si>
+    <t>Centre de formation : Lycée Gabriel Fauré</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SLAM</t>
+    </r>
+  </si>
+  <si>
+    <t>NOM et prénom : Guilian Bahno</t>
+  </si>
+  <si>
+    <t>du 31/01/2022 au 18/02/2022</t>
+  </si>
+  <si>
+    <t>du 02/08/2021 au /05/2022</t>
+  </si>
+  <si>
+    <t>du 02/08/2021 au /05/2023</t>
+  </si>
+  <si>
+    <t>du 02/08/2021 au /05/2024</t>
+  </si>
+  <si>
+    <t>du 02/08/2021 au /05/2025</t>
+  </si>
+  <si>
+    <t>Développement d'une application mobile sous android studio (GsbVisite) et dialogue avec la base de donnée</t>
+  </si>
+  <si>
+    <t>Développement d'une application fixe sous c# (GsbFicheFrais)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,6 +256,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -554,15 +613,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,15 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -904,87 +966,87 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.5546875" customWidth="1"/>
-    <col min="44" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.5703125" customWidth="1"/>
+    <col min="44" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:43" ht="40.15" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:43" ht="40.9" customHeight="1">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:43" ht="40.15" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="A4" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+    <row r="4" spans="1:43" ht="40.15" customHeight="1" thickBot="1">
+      <c r="A4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="90" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="90" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>23</v>
+      <c r="B5" s="39" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -1005,9 +1067,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="36"/>
+    <row r="6" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" thickBot="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1062,17 +1124,17 @@
       <c r="AP6"/>
       <c r="AQ6"/>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999">
-      <c r="A7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="18">
+      <c r="A7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1109,14 +1171,22 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -1154,14 +1224,22 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -1199,14 +1277,24 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1244,14 +1332,22 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1289,7 +1385,7 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="10"/>
       <c r="C12" s="20"/>
@@ -1334,7 +1430,7 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="10"/>
       <c r="C13" s="20"/>
@@ -1379,7 +1475,7 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
@@ -1424,7 +1520,7 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="10"/>
       <c r="C15" s="20"/>
@@ -1469,7 +1565,7 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="10"/>
       <c r="C16" s="20"/>
@@ -1514,7 +1610,7 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="10"/>
       <c r="C17" s="20"/>
@@ -1559,17 +1655,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999">
-      <c r="A18" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18">
+      <c r="A18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1606,21 +1702,25 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19"/>
@@ -1659,12 +1759,20 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="20"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
@@ -1704,7 +1812,7 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="10"/>
       <c r="C21" s="20"/>
@@ -1749,7 +1857,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
@@ -1794,7 +1902,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="10"/>
       <c r="C23" s="20"/>
@@ -1839,7 +1947,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="10"/>
       <c r="C24" s="20"/>
@@ -1884,7 +1992,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="10"/>
       <c r="C25" s="20"/>
@@ -1929,7 +2037,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="10"/>
       <c r="C26" s="20"/>
@@ -1974,17 +2082,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999">
-      <c r="A27" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18">
+      <c r="A27" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2021,18 +2129,20 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="21"/>
@@ -2072,23 +2182,27 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="D29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="F29" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29"/>
@@ -2127,14 +2241,24 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2172,7 +2296,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="10"/>
       <c r="C31" s="20"/>
@@ -2217,7 +2341,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="10"/>
       <c r="C32" s="20"/>
@@ -2262,7 +2386,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="11"/>
       <c r="C33" s="22"/>
@@ -2307,7 +2431,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="11"/>
       <c r="C34" s="22"/>
@@ -2352,7 +2476,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" thickBot="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="24"/>
@@ -2397,7 +2521,7 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="13.8">
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="15">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -2490,17 +2614,17 @@
     <row r="82" customFormat="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Annexes/Annexe6_TableauDeSynthese.xlsx
+++ b/Annexes/Annexe6_TableauDeSynthese.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guili\OneDrive\Bureau\projet\Portfolio\Xalovald.github.io\Annexes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5876802C-2C10-4338-9DDF-1D5EB2689239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="510" windowWidth="33270" windowHeight="12810"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -93,9 +99,6 @@
   </si>
   <si>
     <t>SESSION 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
@@ -169,32 +172,45 @@
     <t>du 31/01/2022 au 18/02/2022</t>
   </si>
   <si>
-    <t>du 02/08/2021 au /05/2022</t>
-  </si>
-  <si>
-    <t>du 02/08/2021 au /05/2023</t>
-  </si>
-  <si>
-    <t>du 02/08/2021 au /05/2024</t>
-  </si>
-  <si>
-    <t>du 02/08/2021 au /05/2025</t>
-  </si>
-  <si>
     <t>Développement d'une application mobile sous android studio (GsbVisite) et dialogue avec la base de donnée</t>
   </si>
   <si>
     <t>Développement d'une application fixe sous c# (GsbFicheFrais)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Révision du SEO concernant le portfolio
+</t>
+  </si>
+  <si>
+    <t>du 02/08/2021 au 15/05/2022</t>
+  </si>
+  <si>
+    <t>du 15/12/2021 au 22/05/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veille technologique </t>
+  </si>
+  <si>
+    <t>du 02/10/2021 au 02/10/2021</t>
+  </si>
+  <si>
+    <t>du 10/12/2021 au 11/04/2022</t>
+  </si>
+  <si>
+    <t>N° candidat : 02146717329</t>
+  </si>
+  <si>
+    <t>du 01/09/2020 au 09/06/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -559,12 +575,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -616,9 +626,45 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -628,39 +674,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,7 +735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,9 +767,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,6 +819,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -960,17 +1012,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
@@ -980,73 +1032,73 @@
     <col min="44" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="40.15" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:43" ht="40.9" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:43" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:43" ht="40.15" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40.15" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:43" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="90" customHeight="1">
-      <c r="A5" s="31" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>20</v>
+      <c r="B5" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -1067,25 +1119,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" thickBot="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I6"/>
@@ -1124,17 +1176,17 @@
       <c r="AP6"/>
       <c r="AQ6"/>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1171,23 +1223,25 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="21"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="19"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1224,23 +1278,23 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="21"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1277,25 +1331,25 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="21"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1332,23 +1386,21 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="21"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1385,15 +1437,23 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1430,15 +1490,21 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1475,15 +1541,15 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1520,15 +1586,15 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1565,15 +1631,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1610,15 +1676,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1655,17 +1721,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1702,27 +1768,25 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="21"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1759,23 +1823,23 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1812,15 +1876,15 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1857,15 +1921,15 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1902,15 +1966,15 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1947,15 +2011,15 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1992,15 +2056,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2037,15 +2101,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2082,17 +2146,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A27" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2129,23 +2193,23 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10" t="s">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2182,29 +2246,23 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="21"/>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2241,25 +2299,23 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="21"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="19"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2296,15 +2352,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2341,15 +2397,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2386,15 +2442,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2431,15 +2487,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2476,15 +2532,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" thickBot="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2521,7 +2577,7 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="15">
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -2566,70 +2622,70 @@
       <c r="AP36"/>
       <c r="AQ36"/>
     </row>
-    <row r="37" spans="1:43" customFormat="1"/>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
-    <row r="82" customFormat="1"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>